--- a/Excel data_ans/IF 4_ans.xlsx
+++ b/Excel data_ans/IF 4_ans.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DA_TOPS\TOPS-ASSIGNMENTS-main\TOPS-ASSIGNMENTS-main\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Excel_data\Excel data_ans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C0F078A-2D5B-49DC-BE2C-D8F5B6F4641E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8924E241-6B6C-48AB-ABA9-F54E7DB69595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E4B56F38-D64E-4259-B219-6B5B05364F51}"/>
   </bookViews>
@@ -582,9 +582,9 @@
       <c r="C11" s="4">
         <v>46866</v>
       </c>
-      <c r="D11" s="6" t="str">
-        <f>IF(B11="A+","100%","50%")</f>
-        <v>100%</v>
+      <c r="D11" s="6">
+        <f>IF(B11="A+",C11,C11/2)</f>
+        <v>46866</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -597,9 +597,9 @@
       <c r="C12" s="4">
         <v>33495</v>
       </c>
-      <c r="D12" s="6" t="str">
-        <f>IF(B12="A+","100%","50%")</f>
-        <v>50%</v>
+      <c r="D12" s="6">
+        <f t="shared" ref="D12:D17" si="0">IF(B12="A+",C12,C12/2)</f>
+        <v>16747.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -612,9 +612,9 @@
       <c r="C13" s="4">
         <v>35087</v>
       </c>
-      <c r="D13" s="6" t="str">
-        <f t="shared" ref="D13:D17" si="0">IF(B13="A+","100%","50%")</f>
-        <v>50%</v>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>17543.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -627,9 +627,9 @@
       <c r="C14" s="4">
         <v>42603</v>
       </c>
-      <c r="D14" s="6" t="str">
+      <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>100%</v>
+        <v>42603</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -642,9 +642,9 @@
       <c r="C15" s="4">
         <v>36971</v>
       </c>
-      <c r="D15" s="6" t="str">
+      <c r="D15" s="6">
         <f t="shared" si="0"/>
-        <v>50%</v>
+        <v>18485.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -657,9 +657,9 @@
       <c r="C16" s="4">
         <v>41286</v>
       </c>
-      <c r="D16" s="6" t="str">
+      <c r="D16" s="6">
         <f t="shared" si="0"/>
-        <v>100%</v>
+        <v>41286</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -672,9 +672,9 @@
       <c r="C17" s="4">
         <v>37732</v>
       </c>
-      <c r="D17" s="6" t="str">
+      <c r="D17" s="6">
         <f t="shared" si="0"/>
-        <v>50%</v>
+        <v>18866</v>
       </c>
     </row>
   </sheetData>
